--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC423FC7-C55D-489C-96D2-37A4805FC32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B2F206-EFD8-455A-B64F-E90D4DAE301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="480" windowWidth="20805" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="3120" yWindow="1860" windowWidth="22200" windowHeight="14340" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="K4" s="1">
         <f>K3*K2</f>
-        <v>2467176</v>
+        <v>2576022</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="K7" s="1">
         <f>K4+K6-K5</f>
-        <v>2405662</v>
+        <v>2514508</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:HO100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD94" sqref="AD94"/>
+      <selection pane="bottomRight" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2602,19 +2602,19 @@
       </c>
       <c r="Z23" s="1">
         <f>Z22*(1-Z41)</f>
-        <v>176026.2895918639</v>
+        <v>173366.50031277345</v>
       </c>
       <c r="AA23" s="1">
         <f>AA22*(1-AA41)</f>
-        <v>193650.73926575331</v>
+        <v>187618.70387988907</v>
       </c>
       <c r="AB23" s="1">
         <f>AB22*(1-AB41)</f>
-        <v>213283.10821439693</v>
+        <v>203007.35473344492</v>
       </c>
       <c r="AC23" s="1">
         <f>AC22*(1-AC41)</f>
-        <v>235169.04702831098</v>
+        <v>219584.97766518453</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="Z24" s="1">
         <f>Z22-Z23</f>
-        <v>268638.71718813607</v>
+        <v>271298.50646722654</v>
       </c>
       <c r="AA24" s="1">
         <f>AA22-AA23</f>
-        <v>303117.20675468672</v>
+        <v>309149.24214055098</v>
       </c>
       <c r="AB24" s="1">
         <f>AB22-AB23</f>
-        <v>342547.61339432426</v>
+        <v>352823.36687527626</v>
       </c>
       <c r="AC24" s="1">
         <f>AC22-AC23</f>
-        <v>387701.70498545957</v>
+        <v>403285.77434858598</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -3221,19 +3221,19 @@
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="48"/>
-        <v>153326.03007032885</v>
+        <v>155985.81934941933</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="48"/>
-        <v>178332.21514868771</v>
+        <v>184364.25053455197</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="48"/>
-        <v>207198.55848734791</v>
+        <v>217474.31196829991</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" si="48"/>
-        <v>240545.56251687589</v>
+        <v>256129.6318800023</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -3241,11 +3241,11 @@
         <v>12</v>
       </c>
       <c r="L30" s="1">
-        <f>K53*$AF$87/4</f>
+        <f>K53*$AF$36/4</f>
         <v>307.57</v>
       </c>
       <c r="M30" s="1">
-        <f>L53*$AF$87/4</f>
+        <f>L53*$AF$36/4</f>
         <v>445.64666566290077</v>
       </c>
       <c r="Y30" s="1">
@@ -3253,20 +3253,20 @@
         <v>753.21666566290082</v>
       </c>
       <c r="Z30" s="1">
-        <f>Y53*$AF$87</f>
+        <f>Y53*$AF$36</f>
         <v>2372.7972017602365</v>
       </c>
       <c r="AA30" s="1">
-        <f>Z53*$AF$87</f>
-        <v>5121.6500935680797</v>
+        <f>Z53*$AF$36</f>
+        <v>5164.7386798893458</v>
       </c>
       <c r="AB30" s="1">
-        <f>AA53*$AF$87</f>
-        <v>8322.3999193926247</v>
+        <f>AA53*$AF$36</f>
+        <v>8463.9055140632954</v>
       </c>
       <c r="AC30" s="1">
-        <f>AB53*$AF$87</f>
-        <v>12044.924626570819</v>
+        <f>AB53*$AF$36</f>
+        <v>12355.189818266579</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -3448,19 +3448,19 @@
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="54"/>
-        <v>169682.27727208909</v>
+        <v>172342.06655117957</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="54"/>
-        <v>197577.1497422558</v>
+        <v>203652.27371444134</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="54"/>
-        <v>229785.47575174054</v>
+        <v>240202.73482736319</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="54"/>
-        <v>266997.64966189669</v>
+        <v>282891.98421671888</v>
       </c>
     </row>
     <row r="33" spans="1:223" x14ac:dyDescent="0.2">
@@ -3541,19 +3541,19 @@
       </c>
       <c r="Z33" s="1">
         <f t="shared" ref="Z33:AC33" si="56">Z32*0.19</f>
-        <v>32239.632681696927</v>
+        <v>32744.99264472412</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="56"/>
-        <v>37539.658451028605</v>
+        <v>38693.932005743853</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="56"/>
-        <v>43659.240392830703</v>
+        <v>45638.51961719901</v>
       </c>
       <c r="AC33" s="1">
         <f t="shared" si="56"/>
-        <v>50729.553435760376</v>
+        <v>53749.477001176587</v>
       </c>
     </row>
     <row r="34" spans="1:223" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3655,795 +3655,795 @@
       </c>
       <c r="Z34" s="15">
         <f t="shared" si="61"/>
-        <v>137442.64459039216</v>
+        <v>139597.07390645545</v>
       </c>
       <c r="AA34" s="15">
         <f t="shared" si="61"/>
-        <v>160037.4912912272</v>
+        <v>164958.3417086975</v>
       </c>
       <c r="AB34" s="15">
         <f t="shared" si="61"/>
-        <v>186126.23535890982</v>
+        <v>194564.2152101642</v>
       </c>
       <c r="AC34" s="15">
         <f t="shared" si="61"/>
-        <v>216268.09622613632</v>
+        <v>229142.50721554228</v>
       </c>
       <c r="AD34" s="15">
-        <f t="shared" ref="AD34:BI34" si="62">AC34*(1+$AF$88)</f>
-        <v>218430.77718839768</v>
+        <f>AC34*(1+$AF$37)</f>
+        <v>231433.93228769771</v>
       </c>
       <c r="AE34" s="15">
-        <f t="shared" si="62"/>
-        <v>220615.08496028167</v>
+        <f>AD34*(1+$AF$37)</f>
+        <v>233748.27161057468</v>
       </c>
       <c r="AF34" s="15">
-        <f t="shared" si="62"/>
-        <v>222821.2358098845</v>
+        <f>AE34*(1+$AF$37)</f>
+        <v>236085.75432668044</v>
       </c>
       <c r="AG34" s="15">
-        <f t="shared" si="62"/>
-        <v>225049.44816798336</v>
+        <f>AF34*(1+$AF$37)</f>
+        <v>238446.61186994726</v>
       </c>
       <c r="AH34" s="15">
-        <f t="shared" si="62"/>
-        <v>227299.94264966319</v>
+        <f>AG34*(1+$AF$37)</f>
+        <v>240831.07798864672</v>
       </c>
       <c r="AI34" s="15">
-        <f t="shared" si="62"/>
-        <v>229572.94207615982</v>
+        <f>AH34*(1+$AF$37)</f>
+        <v>243239.38876853319</v>
       </c>
       <c r="AJ34" s="15">
-        <f t="shared" si="62"/>
-        <v>231868.67149692142</v>
+        <f>AI34*(1+$AF$37)</f>
+        <v>245671.78265621851</v>
       </c>
       <c r="AK34" s="15">
-        <f t="shared" si="62"/>
-        <v>234187.35821189065</v>
+        <f>AJ34*(1+$AF$37)</f>
+        <v>248128.50048278068</v>
       </c>
       <c r="AL34" s="15">
-        <f t="shared" si="62"/>
-        <v>236529.23179400957</v>
+        <f>AK34*(1+$AF$37)</f>
+        <v>250609.78548760849</v>
       </c>
       <c r="AM34" s="15">
-        <f t="shared" si="62"/>
-        <v>238894.52411194966</v>
+        <f>AL34*(1+$AF$37)</f>
+        <v>253115.88334248457</v>
       </c>
       <c r="AN34" s="15">
-        <f t="shared" si="62"/>
-        <v>241283.46935306917</v>
+        <f>AM34*(1+$AF$37)</f>
+        <v>255647.04217590942</v>
       </c>
       <c r="AO34" s="15">
-        <f t="shared" si="62"/>
-        <v>243696.30404659986</v>
+        <f>AN34*(1+$AF$37)</f>
+        <v>258203.51259766851</v>
       </c>
       <c r="AP34" s="15">
-        <f t="shared" si="62"/>
-        <v>246133.26708706588</v>
+        <f>AO34*(1+$AF$37)</f>
+        <v>260785.5477236452</v>
       </c>
       <c r="AQ34" s="15">
-        <f t="shared" si="62"/>
-        <v>248594.59975793655</v>
+        <f>AP34*(1+$AF$37)</f>
+        <v>263393.40320088167</v>
       </c>
       <c r="AR34" s="15">
-        <f t="shared" si="62"/>
-        <v>251080.54575551592</v>
+        <f>AQ34*(1+$AF$37)</f>
+        <v>266027.33723289048</v>
       </c>
       <c r="AS34" s="15">
-        <f t="shared" si="62"/>
-        <v>253591.35121307109</v>
+        <f>AR34*(1+$AF$37)</f>
+        <v>268687.61060521938</v>
       </c>
       <c r="AT34" s="15">
-        <f t="shared" si="62"/>
-        <v>256127.26472520179</v>
+        <f>AS34*(1+$AF$37)</f>
+        <v>271374.48671127157</v>
       </c>
       <c r="AU34" s="15">
-        <f t="shared" si="62"/>
-        <v>258688.53737245381</v>
+        <f>AT34*(1+$AF$37)</f>
+        <v>274088.23157838429</v>
       </c>
       <c r="AV34" s="15">
-        <f t="shared" si="62"/>
-        <v>261275.42274617834</v>
+        <f>AU34*(1+$AF$37)</f>
+        <v>276829.11389416811</v>
       </c>
       <c r="AW34" s="15">
-        <f t="shared" si="62"/>
-        <v>263888.1769736401</v>
+        <f>AV34*(1+$AF$37)</f>
+        <v>279597.40503310977</v>
       </c>
       <c r="AX34" s="15">
-        <f t="shared" si="62"/>
-        <v>266527.05874337652</v>
+        <f>AW34*(1+$AF$37)</f>
+        <v>282393.37908344087</v>
       </c>
       <c r="AY34" s="15">
-        <f t="shared" si="62"/>
-        <v>269192.32933081029</v>
+        <f>AX34*(1+$AF$37)</f>
+        <v>285217.31287427526</v>
       </c>
       <c r="AZ34" s="15">
-        <f t="shared" si="62"/>
-        <v>271884.25262411841</v>
+        <f>AY34*(1+$AF$37)</f>
+        <v>288069.48600301804</v>
       </c>
       <c r="BA34" s="15">
-        <f t="shared" si="62"/>
-        <v>274603.09515035962</v>
+        <f>AZ34*(1+$AF$37)</f>
+        <v>290950.18086304824</v>
       </c>
       <c r="BB34" s="15">
-        <f t="shared" si="62"/>
-        <v>277349.12610186322</v>
+        <f>BA34*(1+$AF$37)</f>
+        <v>293859.68267167872</v>
       </c>
       <c r="BC34" s="15">
-        <f t="shared" si="62"/>
-        <v>280122.61736288184</v>
+        <f>BB34*(1+$AF$37)</f>
+        <v>296798.27949839551</v>
       </c>
       <c r="BD34" s="15">
-        <f t="shared" si="62"/>
-        <v>282923.84353651066</v>
+        <f>BC34*(1+$AF$37)</f>
+        <v>299766.26229337946</v>
       </c>
       <c r="BE34" s="15">
-        <f t="shared" si="62"/>
-        <v>285753.08197187574</v>
+        <f>BD34*(1+$AF$37)</f>
+        <v>302763.92491631326</v>
       </c>
       <c r="BF34" s="15">
-        <f t="shared" si="62"/>
-        <v>288610.61279159453</v>
+        <f>BE34*(1+$AF$37)</f>
+        <v>305791.56416547642</v>
       </c>
       <c r="BG34" s="15">
-        <f t="shared" si="62"/>
-        <v>291496.71891951049</v>
+        <f>BF34*(1+$AF$37)</f>
+        <v>308849.47980713117</v>
       </c>
       <c r="BH34" s="15">
-        <f t="shared" si="62"/>
-        <v>294411.68610870559</v>
+        <f>BG34*(1+$AF$37)</f>
+        <v>311937.9746052025</v>
       </c>
       <c r="BI34" s="15">
-        <f t="shared" si="62"/>
-        <v>297355.80296979262</v>
+        <f>BH34*(1+$AF$37)</f>
+        <v>315057.35435125453</v>
       </c>
       <c r="BJ34" s="15">
-        <f t="shared" ref="BJ34:CO34" si="63">BI34*(1+$AF$88)</f>
-        <v>300329.36099949054</v>
+        <f>BI34*(1+$AF$37)</f>
+        <v>318207.92789476708</v>
       </c>
       <c r="BK34" s="15">
-        <f t="shared" si="63"/>
-        <v>303332.65460948547</v>
+        <f>BJ34*(1+$AF$37)</f>
+        <v>321390.00717371475</v>
       </c>
       <c r="BL34" s="15">
-        <f t="shared" si="63"/>
-        <v>306365.98115558032</v>
+        <f>BK34*(1+$AF$37)</f>
+        <v>324603.90724545188</v>
       </c>
       <c r="BM34" s="15">
-        <f t="shared" si="63"/>
-        <v>309429.64096713613</v>
+        <f>BL34*(1+$AF$37)</f>
+        <v>327849.94631790638</v>
       </c>
       <c r="BN34" s="15">
-        <f t="shared" si="63"/>
-        <v>312523.9373768075</v>
+        <f>BM34*(1+$AF$37)</f>
+        <v>331128.44578108547</v>
       </c>
       <c r="BO34" s="15">
-        <f t="shared" si="63"/>
-        <v>315649.1767505756</v>
+        <f>BN34*(1+$AF$37)</f>
+        <v>334439.73023889633</v>
       </c>
       <c r="BP34" s="15">
-        <f t="shared" si="63"/>
-        <v>318805.66851808137</v>
+        <f>BO34*(1+$AF$37)</f>
+        <v>337784.1275412853</v>
       </c>
       <c r="BQ34" s="15">
-        <f t="shared" si="63"/>
-        <v>321993.72520326218</v>
+        <f>BP34*(1+$AF$37)</f>
+        <v>341161.96881669818</v>
       </c>
       <c r="BR34" s="15">
-        <f t="shared" si="63"/>
-        <v>325213.66245529481</v>
+        <f>BQ34*(1+$AF$37)</f>
+        <v>344573.58850486518</v>
       </c>
       <c r="BS34" s="15">
-        <f t="shared" si="63"/>
-        <v>328465.79907984775</v>
+        <f>BR34*(1+$AF$37)</f>
+        <v>348019.32438991382</v>
       </c>
       <c r="BT34" s="15">
-        <f t="shared" si="63"/>
-        <v>331750.45707064623</v>
+        <f>BS34*(1+$AF$37)</f>
+        <v>351499.51763381297</v>
       </c>
       <c r="BU34" s="15">
-        <f t="shared" si="63"/>
-        <v>335067.96164135268</v>
+        <f>BT34*(1+$AF$37)</f>
+        <v>355014.51281015109</v>
       </c>
       <c r="BV34" s="15">
-        <f t="shared" si="63"/>
-        <v>338418.64125776623</v>
+        <f>BU34*(1+$AF$37)</f>
+        <v>358564.65793825261</v>
       </c>
       <c r="BW34" s="15">
-        <f t="shared" si="63"/>
-        <v>341802.82767034392</v>
+        <f>BV34*(1+$AF$37)</f>
+        <v>362150.30451763514</v>
       </c>
       <c r="BX34" s="15">
-        <f t="shared" si="63"/>
-        <v>345220.85594704736</v>
+        <f>BW34*(1+$AF$37)</f>
+        <v>365771.80756281147</v>
       </c>
       <c r="BY34" s="15">
-        <f t="shared" si="63"/>
-        <v>348673.06450651784</v>
+        <f>BX34*(1+$AF$37)</f>
+        <v>369429.52563843958</v>
       </c>
       <c r="BZ34" s="15">
-        <f t="shared" si="63"/>
-        <v>352159.79515158304</v>
+        <f>BY34*(1+$AF$37)</f>
+        <v>373123.82089482399</v>
       </c>
       <c r="CA34" s="15">
-        <f t="shared" si="63"/>
-        <v>355681.39310309885</v>
+        <f>BZ34*(1+$AF$37)</f>
+        <v>376855.05910377222</v>
       </c>
       <c r="CB34" s="15">
-        <f t="shared" si="63"/>
-        <v>359238.20703412982</v>
+        <f>CA34*(1+$AF$37)</f>
+        <v>380623.60969480994</v>
       </c>
       <c r="CC34" s="15">
-        <f t="shared" si="63"/>
-        <v>362830.58910447115</v>
+        <f>CB34*(1+$AF$37)</f>
+        <v>384429.84579175804</v>
       </c>
       <c r="CD34" s="15">
-        <f t="shared" si="63"/>
-        <v>366458.89499551588</v>
+        <f>CC34*(1+$AF$37)</f>
+        <v>388274.14424967562</v>
       </c>
       <c r="CE34" s="15">
-        <f t="shared" si="63"/>
-        <v>370123.48394547106</v>
+        <f>CD34*(1+$AF$37)</f>
+        <v>392156.88569217239</v>
       </c>
       <c r="CF34" s="15">
-        <f t="shared" si="63"/>
-        <v>373824.71878492576</v>
+        <f>CE34*(1+$AF$37)</f>
+        <v>396078.45454909414</v>
       </c>
       <c r="CG34" s="15">
-        <f t="shared" si="63"/>
-        <v>377562.96597277501</v>
+        <f>CF34*(1+$AF$37)</f>
+        <v>400039.23909458506</v>
       </c>
       <c r="CH34" s="15">
-        <f t="shared" si="63"/>
-        <v>381338.59563250275</v>
+        <f>CG34*(1+$AF$37)</f>
+        <v>404039.63148553093</v>
       </c>
       <c r="CI34" s="15">
-        <f t="shared" si="63"/>
-        <v>385151.9815888278</v>
+        <f>CH34*(1+$AF$37)</f>
+        <v>408080.02780038625</v>
       </c>
       <c r="CJ34" s="15">
-        <f t="shared" si="63"/>
-        <v>389003.50140471605</v>
+        <f>CI34*(1+$AF$37)</f>
+        <v>412160.8280783901</v>
       </c>
       <c r="CK34" s="15">
-        <f t="shared" si="63"/>
-        <v>392893.53641876322</v>
+        <f>CJ34*(1+$AF$37)</f>
+        <v>416282.43635917403</v>
       </c>
       <c r="CL34" s="15">
-        <f t="shared" si="63"/>
-        <v>396822.47178295086</v>
+        <f>CK34*(1+$AF$37)</f>
+        <v>420445.26072276576</v>
       </c>
       <c r="CM34" s="15">
-        <f t="shared" si="63"/>
-        <v>400790.69650078035</v>
+        <f>CL34*(1+$AF$37)</f>
+        <v>424649.71332999342</v>
       </c>
       <c r="CN34" s="15">
-        <f t="shared" si="63"/>
-        <v>404798.60346578818</v>
+        <f>CM34*(1+$AF$37)</f>
+        <v>428896.21046329336</v>
       </c>
       <c r="CO34" s="15">
-        <f t="shared" si="63"/>
-        <v>408846.58950044605</v>
+        <f>CN34*(1+$AF$37)</f>
+        <v>433185.17256792629</v>
       </c>
       <c r="CP34" s="15">
-        <f t="shared" ref="CP34:DU34" si="64">CO34*(1+$AF$88)</f>
-        <v>412935.0553954505</v>
+        <f>CO34*(1+$AF$37)</f>
+        <v>437517.02429360553</v>
       </c>
       <c r="CQ34" s="15">
-        <f t="shared" si="64"/>
-        <v>417064.40594940499</v>
+        <f>CP34*(1+$AF$37)</f>
+        <v>441892.19453654159</v>
       </c>
       <c r="CR34" s="15">
-        <f t="shared" si="64"/>
-        <v>421235.05000889907</v>
+        <f>CQ34*(1+$AF$37)</f>
+        <v>446311.11648190703</v>
       </c>
       <c r="CS34" s="15">
-        <f t="shared" si="64"/>
-        <v>425447.40050898807</v>
+        <f>CR34*(1+$AF$37)</f>
+        <v>450774.22764672613</v>
       </c>
       <c r="CT34" s="15">
-        <f t="shared" si="64"/>
-        <v>429701.87451407796</v>
+        <f>CS34*(1+$AF$37)</f>
+        <v>455281.96992319339</v>
       </c>
       <c r="CU34" s="15">
-        <f t="shared" si="64"/>
-        <v>433998.89325921872</v>
+        <f>CT34*(1+$AF$37)</f>
+        <v>459834.78962242533</v>
       </c>
       <c r="CV34" s="15">
-        <f t="shared" si="64"/>
-        <v>438338.88219181093</v>
+        <f>CU34*(1+$AF$37)</f>
+        <v>464433.13751864957</v>
       </c>
       <c r="CW34" s="15">
-        <f t="shared" si="64"/>
-        <v>442722.27101372904</v>
+        <f>CV34*(1+$AF$37)</f>
+        <v>469077.46889383608</v>
       </c>
       <c r="CX34" s="15">
-        <f t="shared" si="64"/>
-        <v>447149.49372386636</v>
+        <f>CW34*(1+$AF$37)</f>
+        <v>473768.24358277442</v>
       </c>
       <c r="CY34" s="15">
-        <f t="shared" si="64"/>
-        <v>451620.98866110505</v>
+        <f>CX34*(1+$AF$37)</f>
+        <v>478505.92601860216</v>
       </c>
       <c r="CZ34" s="15">
-        <f t="shared" si="64"/>
-        <v>456137.19854771608</v>
+        <f>CY34*(1+$AF$37)</f>
+        <v>483290.9852787882</v>
       </c>
       <c r="DA34" s="15">
-        <f t="shared" si="64"/>
-        <v>460698.57053319324</v>
+        <f>CZ34*(1+$AF$37)</f>
+        <v>488123.89513157611</v>
       </c>
       <c r="DB34" s="15">
-        <f t="shared" si="64"/>
-        <v>465305.5562385252</v>
+        <f>DA34*(1+$AF$37)</f>
+        <v>493005.13408289186</v>
       </c>
       <c r="DC34" s="15">
-        <f t="shared" si="64"/>
-        <v>469958.61180091044</v>
+        <f>DB34*(1+$AF$37)</f>
+        <v>497935.1854237208</v>
       </c>
       <c r="DD34" s="15">
-        <f t="shared" si="64"/>
-        <v>474658.19791891956</v>
+        <f>DC34*(1+$AF$37)</f>
+        <v>502914.53727795801</v>
       </c>
       <c r="DE34" s="15">
-        <f t="shared" si="64"/>
-        <v>479404.77989810874</v>
+        <f>DD34*(1+$AF$37)</f>
+        <v>507943.68265073758</v>
       </c>
       <c r="DF34" s="15">
-        <f t="shared" si="64"/>
-        <v>484198.82769708982</v>
+        <f>DE34*(1+$AF$37)</f>
+        <v>513023.11947724497</v>
       </c>
       <c r="DG34" s="15">
-        <f t="shared" si="64"/>
-        <v>489040.81597406074</v>
+        <f>DF34*(1+$AF$37)</f>
+        <v>518153.35067201743</v>
       </c>
       <c r="DH34" s="15">
-        <f t="shared" si="64"/>
-        <v>493931.22413380136</v>
+        <f>DG34*(1+$AF$37)</f>
+        <v>523334.88417873759</v>
       </c>
       <c r="DI34" s="15">
-        <f t="shared" si="64"/>
-        <v>498870.53637513937</v>
+        <f>DH34*(1+$AF$37)</f>
+        <v>528568.23302052496</v>
       </c>
       <c r="DJ34" s="15">
-        <f t="shared" si="64"/>
-        <v>503859.24173889076</v>
+        <f>DI34*(1+$AF$37)</f>
+        <v>533853.91535073018</v>
       </c>
       <c r="DK34" s="15">
-        <f t="shared" si="64"/>
-        <v>508897.83415627968</v>
+        <f>DJ34*(1+$AF$37)</f>
+        <v>539192.45450423751</v>
       </c>
       <c r="DL34" s="15">
-        <f t="shared" si="64"/>
-        <v>513986.81249784247</v>
+        <f>DK34*(1+$AF$37)</f>
+        <v>544584.37904927984</v>
       </c>
       <c r="DM34" s="15">
-        <f t="shared" si="64"/>
-        <v>519126.68062282092</v>
+        <f>DL34*(1+$AF$37)</f>
+        <v>550030.2228397727</v>
       </c>
       <c r="DN34" s="15">
-        <f t="shared" si="64"/>
-        <v>524317.94742904918</v>
+        <f>DM34*(1+$AF$37)</f>
+        <v>555530.52506817039</v>
       </c>
       <c r="DO34" s="15">
-        <f t="shared" si="64"/>
-        <v>529561.12690333964</v>
+        <f>DN34*(1+$AF$37)</f>
+        <v>561085.83031885209</v>
       </c>
       <c r="DP34" s="15">
-        <f t="shared" si="64"/>
-        <v>534856.73817237304</v>
+        <f>DO34*(1+$AF$37)</f>
+        <v>566696.68862204067</v>
       </c>
       <c r="DQ34" s="15">
-        <f t="shared" si="64"/>
-        <v>540205.30555409682</v>
+        <f>DP34*(1+$AF$37)</f>
+        <v>572363.65550826106</v>
       </c>
       <c r="DR34" s="15">
-        <f t="shared" si="64"/>
-        <v>545607.35860963783</v>
+        <f>DQ34*(1+$AF$37)</f>
+        <v>578087.29206334369</v>
       </c>
       <c r="DS34" s="15">
-        <f t="shared" si="64"/>
-        <v>551063.43219573423</v>
+        <f>DR34*(1+$AF$37)</f>
+        <v>583868.1649839771</v>
       </c>
       <c r="DT34" s="15">
-        <f t="shared" si="64"/>
-        <v>556574.06651769159</v>
+        <f>DS34*(1+$AF$37)</f>
+        <v>589706.84663381684</v>
       </c>
       <c r="DU34" s="15">
-        <f t="shared" si="64"/>
-        <v>562139.80718286848</v>
+        <f>DT34*(1+$AF$37)</f>
+        <v>595603.91510015505</v>
       </c>
       <c r="DV34" s="15">
-        <f t="shared" ref="DV34:FA34" si="65">DU34*(1+$AF$88)</f>
-        <v>567761.20525469712</v>
+        <f>DU34*(1+$AF$37)</f>
+        <v>601559.95425115665</v>
       </c>
       <c r="DW34" s="15">
-        <f t="shared" si="65"/>
-        <v>573438.81730724405</v>
+        <f>DV34*(1+$AF$37)</f>
+        <v>607575.55379366828</v>
       </c>
       <c r="DX34" s="15">
-        <f t="shared" si="65"/>
-        <v>579173.20548031654</v>
+        <f>DW34*(1+$AF$37)</f>
+        <v>613651.30933160498</v>
       </c>
       <c r="DY34" s="15">
-        <f t="shared" si="65"/>
-        <v>584964.93753511971</v>
+        <f>DX34*(1+$AF$37)</f>
+        <v>619787.82242492109</v>
       </c>
       <c r="DZ34" s="15">
-        <f t="shared" si="65"/>
-        <v>590814.58691047085</v>
+        <f>DY34*(1+$AF$37)</f>
+        <v>625985.70064917032</v>
       </c>
       <c r="EA34" s="15">
-        <f t="shared" si="65"/>
-        <v>596722.73277957551</v>
+        <f>DZ34*(1+$AF$37)</f>
+        <v>632245.55765566207</v>
       </c>
       <c r="EB34" s="15">
-        <f t="shared" si="65"/>
-        <v>602689.96010737133</v>
+        <f>EA34*(1+$AF$37)</f>
+        <v>638568.01323221868</v>
       </c>
       <c r="EC34" s="15">
-        <f t="shared" si="65"/>
-        <v>608716.85970844503</v>
+        <f>EB34*(1+$AF$37)</f>
+        <v>644953.69336454093</v>
       </c>
       <c r="ED34" s="15">
-        <f t="shared" si="65"/>
-        <v>614804.0283055295</v>
+        <f>EC34*(1+$AF$37)</f>
+        <v>651403.2302981863</v>
       </c>
       <c r="EE34" s="15">
-        <f t="shared" si="65"/>
-        <v>620952.06858858478</v>
+        <f>ED34*(1+$AF$37)</f>
+        <v>657917.26260116813</v>
       </c>
       <c r="EF34" s="15">
-        <f t="shared" si="65"/>
-        <v>627161.58927447058</v>
+        <f>EE34*(1+$AF$37)</f>
+        <v>664496.43522717978</v>
       </c>
       <c r="EG34" s="15">
-        <f t="shared" si="65"/>
-        <v>633433.20516721532</v>
+        <f>EF34*(1+$AF$37)</f>
+        <v>671141.39957945154</v>
       </c>
       <c r="EH34" s="15">
-        <f t="shared" si="65"/>
-        <v>639767.53721888748</v>
+        <f>EG34*(1+$AF$37)</f>
+        <v>677852.81357524602</v>
       </c>
       <c r="EI34" s="15">
-        <f t="shared" si="65"/>
-        <v>646165.21259107639</v>
+        <f>EH34*(1+$AF$37)</f>
+        <v>684631.34171099844</v>
       </c>
       <c r="EJ34" s="15">
-        <f t="shared" si="65"/>
-        <v>652626.86471698713</v>
+        <f>EI34*(1+$AF$37)</f>
+        <v>691477.65512810845</v>
       </c>
       <c r="EK34" s="15">
-        <f t="shared" si="65"/>
-        <v>659153.13336415705</v>
+        <f>EJ34*(1+$AF$37)</f>
+        <v>698392.43167938956</v>
       </c>
       <c r="EL34" s="15">
-        <f t="shared" si="65"/>
-        <v>665744.66469779867</v>
+        <f>EK34*(1+$AF$37)</f>
+        <v>705376.35599618347</v>
       </c>
       <c r="EM34" s="15">
-        <f t="shared" si="65"/>
-        <v>672402.1113447767</v>
+        <f>EL34*(1+$AF$37)</f>
+        <v>712430.11955614528</v>
       </c>
       <c r="EN34" s="15">
-        <f t="shared" si="65"/>
-        <v>679126.13245822443</v>
+        <f>EM34*(1+$AF$37)</f>
+        <v>719554.4207517067</v>
       </c>
       <c r="EO34" s="15">
-        <f t="shared" si="65"/>
-        <v>685917.3937828067</v>
+        <f>EN34*(1+$AF$37)</f>
+        <v>726749.96495922375</v>
       </c>
       <c r="EP34" s="15">
-        <f t="shared" si="65"/>
-        <v>692776.56772063475</v>
+        <f>EO34*(1+$AF$37)</f>
+        <v>734017.46460881596</v>
       </c>
       <c r="EQ34" s="15">
-        <f t="shared" si="65"/>
-        <v>699704.33339784108</v>
+        <f>EP34*(1+$AF$37)</f>
+        <v>741357.63925490412</v>
       </c>
       <c r="ER34" s="15">
-        <f t="shared" si="65"/>
-        <v>706701.37673181947</v>
+        <f>EQ34*(1+$AF$37)</f>
+        <v>748771.21564745321</v>
       </c>
       <c r="ES34" s="15">
-        <f t="shared" si="65"/>
-        <v>713768.39049913769</v>
+        <f>ER34*(1+$AF$37)</f>
+        <v>756258.9278039278</v>
       </c>
       <c r="ET34" s="15">
-        <f t="shared" si="65"/>
-        <v>720906.07440412906</v>
+        <f>ES34*(1+$AF$37)</f>
+        <v>763821.51708196709</v>
       </c>
       <c r="EU34" s="15">
-        <f t="shared" si="65"/>
-        <v>728115.1351481704</v>
+        <f>ET34*(1+$AF$37)</f>
+        <v>771459.73225278675</v>
       </c>
       <c r="EV34" s="15">
-        <f t="shared" si="65"/>
-        <v>735396.28649965208</v>
+        <f>EU34*(1+$AF$37)</f>
+        <v>779174.32957531465</v>
       </c>
       <c r="EW34" s="15">
-        <f t="shared" si="65"/>
-        <v>742750.2493646486</v>
+        <f>EV34*(1+$AF$37)</f>
+        <v>786966.07287106779</v>
       </c>
       <c r="EX34" s="15">
-        <f t="shared" si="65"/>
-        <v>750177.75185829506</v>
+        <f>EW34*(1+$AF$37)</f>
+        <v>794835.7335997785</v>
       </c>
       <c r="EY34" s="15">
-        <f t="shared" si="65"/>
-        <v>757679.52937687805</v>
+        <f>EX34*(1+$AF$37)</f>
+        <v>802784.09093577624</v>
       </c>
       <c r="EZ34" s="15">
-        <f t="shared" si="65"/>
-        <v>765256.32467064681</v>
+        <f>EY34*(1+$AF$37)</f>
+        <v>810811.93184513401</v>
       </c>
       <c r="FA34" s="15">
-        <f t="shared" si="65"/>
-        <v>772908.88791735331</v>
+        <f>EZ34*(1+$AF$37)</f>
+        <v>818920.05116358539</v>
       </c>
       <c r="FB34" s="15">
-        <f t="shared" ref="FB34:GG34" si="66">FA34*(1+$AF$88)</f>
-        <v>780637.97679652681</v>
+        <f>FA34*(1+$AF$37)</f>
+        <v>827109.25167522125</v>
       </c>
       <c r="FC34" s="15">
-        <f t="shared" si="66"/>
-        <v>788444.3565644921</v>
+        <f>FB34*(1+$AF$37)</f>
+        <v>835380.34419197345</v>
       </c>
       <c r="FD34" s="15">
-        <f t="shared" si="66"/>
-        <v>796328.80013013701</v>
+        <f>FC34*(1+$AF$37)</f>
+        <v>843734.14763389318</v>
       </c>
       <c r="FE34" s="15">
-        <f t="shared" si="66"/>
-        <v>804292.08813143836</v>
+        <f>FD34*(1+$AF$37)</f>
+        <v>852171.4891102321</v>
       </c>
       <c r="FF34" s="15">
-        <f t="shared" si="66"/>
-        <v>812335.00901275279</v>
+        <f>FE34*(1+$AF$37)</f>
+        <v>860693.20400133438</v>
       </c>
       <c r="FG34" s="15">
-        <f t="shared" si="66"/>
-        <v>820458.35910288035</v>
+        <f>FF34*(1+$AF$37)</f>
+        <v>869300.13604134775</v>
       </c>
       <c r="FH34" s="15">
-        <f t="shared" si="66"/>
-        <v>828662.94269390916</v>
+        <f>FG34*(1+$AF$37)</f>
+        <v>877993.13740176125</v>
       </c>
       <c r="FI34" s="15">
-        <f t="shared" si="66"/>
-        <v>836949.57212084823</v>
+        <f>FH34*(1+$AF$37)</f>
+        <v>886773.06877577887</v>
       </c>
       <c r="FJ34" s="15">
-        <f t="shared" si="66"/>
-        <v>845319.06784205674</v>
+        <f>FI34*(1+$AF$37)</f>
+        <v>895640.79946353671</v>
       </c>
       <c r="FK34" s="15">
-        <f t="shared" si="66"/>
-        <v>853772.25852047733</v>
+        <f>FJ34*(1+$AF$37)</f>
+        <v>904597.20745817211</v>
       </c>
       <c r="FL34" s="15">
-        <f t="shared" si="66"/>
-        <v>862309.98110568209</v>
+        <f>FK34*(1+$AF$37)</f>
+        <v>913643.17953275389</v>
       </c>
       <c r="FM34" s="15">
-        <f t="shared" si="66"/>
-        <v>870933.08091673895</v>
+        <f>FL34*(1+$AF$37)</f>
+        <v>922779.61132808146</v>
       </c>
       <c r="FN34" s="15">
-        <f t="shared" si="66"/>
-        <v>879642.41172590631</v>
+        <f>FM34*(1+$AF$37)</f>
+        <v>932007.40744136227</v>
       </c>
       <c r="FO34" s="15">
-        <f t="shared" si="66"/>
-        <v>888438.83584316541</v>
+        <f>FN34*(1+$AF$37)</f>
+        <v>941327.4815157759</v>
       </c>
       <c r="FP34" s="15">
-        <f t="shared" si="66"/>
-        <v>897323.22420159704</v>
+        <f>FO34*(1+$AF$37)</f>
+        <v>950740.75633093365</v>
       </c>
       <c r="FQ34" s="15">
-        <f t="shared" si="66"/>
-        <v>906296.45644361305</v>
+        <f>FP34*(1+$AF$37)</f>
+        <v>960248.16389424296</v>
       </c>
       <c r="FR34" s="15">
-        <f t="shared" si="66"/>
-        <v>915359.42100804916</v>
+        <f>FQ34*(1+$AF$37)</f>
+        <v>969850.64553318545</v>
       </c>
       <c r="FS34" s="15">
-        <f t="shared" si="66"/>
-        <v>924513.01521812961</v>
+        <f>FR34*(1+$AF$37)</f>
+        <v>979549.15198851726</v>
       </c>
       <c r="FT34" s="15">
-        <f t="shared" si="66"/>
-        <v>933758.14537031087</v>
+        <f>FS34*(1+$AF$37)</f>
+        <v>989344.6435084024</v>
       </c>
       <c r="FU34" s="15">
-        <f t="shared" si="66"/>
-        <v>943095.72682401398</v>
+        <f>FT34*(1+$AF$37)</f>
+        <v>999238.08994348638</v>
       </c>
       <c r="FV34" s="15">
-        <f t="shared" si="66"/>
-        <v>952526.68409225415</v>
+        <f>FU34*(1+$AF$37)</f>
+        <v>1009230.4708429213</v>
       </c>
       <c r="FW34" s="15">
-        <f t="shared" si="66"/>
-        <v>962051.95093317667</v>
+        <f>FV34*(1+$AF$37)</f>
+        <v>1019322.7755513506</v>
       </c>
       <c r="FX34" s="15">
-        <f t="shared" si="66"/>
-        <v>971672.47044250846</v>
+        <f>FW34*(1+$AF$37)</f>
+        <v>1029516.0033068641</v>
       </c>
       <c r="FY34" s="15">
-        <f t="shared" si="66"/>
-        <v>981389.19514693355</v>
+        <f>FX34*(1+$AF$37)</f>
+        <v>1039811.1633399327</v>
       </c>
       <c r="FZ34" s="15">
-        <f t="shared" si="66"/>
-        <v>991203.0870984029</v>
+        <f>FY34*(1+$AF$37)</f>
+        <v>1050209.274973332</v>
       </c>
       <c r="GA34" s="15">
-        <f t="shared" si="66"/>
-        <v>1001115.117969387</v>
+        <f>FZ34*(1+$AF$37)</f>
+        <v>1060711.3677230652</v>
       </c>
       <c r="GB34" s="15">
-        <f t="shared" si="66"/>
-        <v>1011126.2691490809</v>
+        <f>GA34*(1+$AF$37)</f>
+        <v>1071318.4814002959</v>
       </c>
       <c r="GC34" s="15">
-        <f t="shared" si="66"/>
-        <v>1021237.5318405717</v>
+        <f>GB34*(1+$AF$37)</f>
+        <v>1082031.6662142989</v>
       </c>
       <c r="GD34" s="15">
-        <f t="shared" si="66"/>
-        <v>1031449.9071589774</v>
+        <f>GC34*(1+$AF$37)</f>
+        <v>1092851.9828764419</v>
       </c>
       <c r="GE34" s="15">
-        <f t="shared" si="66"/>
-        <v>1041764.4062305671</v>
+        <f>GD34*(1+$AF$37)</f>
+        <v>1103780.5027052064</v>
       </c>
       <c r="GF34" s="15">
-        <f t="shared" si="66"/>
-        <v>1052182.0502928728</v>
+        <f>GE34*(1+$AF$37)</f>
+        <v>1114818.3077322585</v>
       </c>
       <c r="GG34" s="15">
-        <f t="shared" si="66"/>
-        <v>1062703.8707958015</v>
+        <f>GF34*(1+$AF$37)</f>
+        <v>1125966.490809581</v>
       </c>
       <c r="GH34" s="15">
-        <f t="shared" ref="GH34:HO34" si="67">GG34*(1+$AF$88)</f>
-        <v>1073330.9095037596</v>
+        <f>GG34*(1+$AF$37)</f>
+        <v>1137226.1557176767</v>
       </c>
       <c r="GI34" s="15">
-        <f t="shared" si="67"/>
-        <v>1084064.2185987972</v>
+        <f>GH34*(1+$AF$37)</f>
+        <v>1148598.4172748534</v>
       </c>
       <c r="GJ34" s="15">
-        <f t="shared" si="67"/>
-        <v>1094904.8607847851</v>
+        <f>GI34*(1+$AF$37)</f>
+        <v>1160084.4014476021</v>
       </c>
       <c r="GK34" s="15">
-        <f t="shared" si="67"/>
-        <v>1105853.909392633</v>
+        <f>GJ34*(1+$AF$37)</f>
+        <v>1171685.2454620781</v>
       </c>
       <c r="GL34" s="15">
-        <f t="shared" si="67"/>
-        <v>1116912.4484865593</v>
+        <f>GK34*(1+$AF$37)</f>
+        <v>1183402.097916699</v>
       </c>
       <c r="GM34" s="15">
-        <f t="shared" si="67"/>
-        <v>1128081.572971425</v>
+        <f>GL34*(1+$AF$37)</f>
+        <v>1195236.118895866</v>
       </c>
       <c r="GN34" s="15">
-        <f t="shared" si="67"/>
-        <v>1139362.3887011393</v>
+        <f>GM34*(1+$AF$37)</f>
+        <v>1207188.4800848246</v>
       </c>
       <c r="GO34" s="15">
-        <f t="shared" si="67"/>
-        <v>1150756.0125881506</v>
+        <f>GN34*(1+$AF$37)</f>
+        <v>1219260.3648856729</v>
       </c>
       <c r="GP34" s="15">
-        <f t="shared" si="67"/>
-        <v>1162263.5727140321</v>
+        <f>GO34*(1+$AF$37)</f>
+        <v>1231452.9685345297</v>
       </c>
       <c r="GQ34" s="15">
-        <f t="shared" si="67"/>
-        <v>1173886.2084411725</v>
+        <f>GP34*(1+$AF$37)</f>
+        <v>1243767.4982198749</v>
       </c>
       <c r="GR34" s="15">
-        <f t="shared" si="67"/>
-        <v>1185625.0705255843</v>
+        <f>GQ34*(1+$AF$37)</f>
+        <v>1256205.1732020737</v>
       </c>
       <c r="GS34" s="15">
-        <f t="shared" si="67"/>
-        <v>1197481.3212308402</v>
+        <f>GR34*(1+$AF$37)</f>
+        <v>1268767.2249340944</v>
       </c>
       <c r="GT34" s="15">
-        <f t="shared" si="67"/>
-        <v>1209456.1344431485</v>
+        <f>GS34*(1+$AF$37)</f>
+        <v>1281454.8971834353</v>
       </c>
       <c r="GU34" s="15">
-        <f t="shared" si="67"/>
-        <v>1221550.69578758</v>
+        <f>GT34*(1+$AF$37)</f>
+        <v>1294269.4461552696</v>
       </c>
       <c r="GV34" s="15">
-        <f t="shared" si="67"/>
-        <v>1233766.2027454558</v>
+        <f>GU34*(1+$AF$37)</f>
+        <v>1307212.1406168223</v>
       </c>
       <c r="GW34" s="15">
-        <f t="shared" si="67"/>
-        <v>1246103.8647729103</v>
+        <f>GV34*(1+$AF$37)</f>
+        <v>1320284.2620229905</v>
       </c>
       <c r="GX34" s="15">
-        <f t="shared" si="67"/>
-        <v>1258564.9034206395</v>
+        <f>GW34*(1+$AF$37)</f>
+        <v>1333487.1046432203</v>
       </c>
       <c r="GY34" s="15">
-        <f t="shared" si="67"/>
-        <v>1271150.5524548457</v>
+        <f>GX34*(1+$AF$37)</f>
+        <v>1346821.9756896526</v>
       </c>
       <c r="GZ34" s="15">
-        <f t="shared" si="67"/>
-        <v>1283862.0579793942</v>
+        <f>GY34*(1+$AF$37)</f>
+        <v>1360290.1954465492</v>
       </c>
       <c r="HA34" s="15">
-        <f t="shared" si="67"/>
-        <v>1296700.6785591883</v>
+        <f>GZ34*(1+$AF$37)</f>
+        <v>1373893.0974010148</v>
       </c>
       <c r="HB34" s="15">
-        <f t="shared" si="67"/>
-        <v>1309667.6853447801</v>
+        <f>HA34*(1+$AF$37)</f>
+        <v>1387632.0283750249</v>
       </c>
       <c r="HC34" s="15">
-        <f t="shared" si="67"/>
-        <v>1322764.362198228</v>
+        <f>HB34*(1+$AF$37)</f>
+        <v>1401508.3486587752</v>
       </c>
       <c r="HD34" s="15">
-        <f t="shared" si="67"/>
-        <v>1335992.0058202103</v>
+        <f>HC34*(1+$AF$37)</f>
+        <v>1415523.432145363</v>
       </c>
       <c r="HE34" s="15">
-        <f t="shared" si="67"/>
-        <v>1349351.9258784126</v>
+        <f>HD34*(1+$AF$37)</f>
+        <v>1429678.6664668166</v>
       </c>
       <c r="HF34" s="15">
-        <f t="shared" si="67"/>
-        <v>1362845.4451371967</v>
+        <f>HE34*(1+$AF$37)</f>
+        <v>1443975.4531314848</v>
       </c>
       <c r="HG34" s="15">
-        <f t="shared" si="67"/>
-        <v>1376473.8995885686</v>
+        <f>HF34*(1+$AF$37)</f>
+        <v>1458415.2076627996</v>
       </c>
       <c r="HH34" s="15">
-        <f t="shared" si="67"/>
-        <v>1390238.6385844543</v>
+        <f>HG34*(1+$AF$37)</f>
+        <v>1472999.3597394277</v>
       </c>
       <c r="HI34" s="15">
-        <f t="shared" si="67"/>
-        <v>1404141.0249702989</v>
+        <f>HH34*(1+$AF$37)</f>
+        <v>1487729.353336822</v>
       </c>
       <c r="HJ34" s="15">
-        <f t="shared" si="67"/>
-        <v>1418182.435220002</v>
+        <f>HI34*(1+$AF$37)</f>
+        <v>1502606.6468701903</v>
       </c>
       <c r="HK34" s="15">
-        <f t="shared" si="67"/>
-        <v>1432364.2595722021</v>
+        <f>HJ34*(1+$AF$37)</f>
+        <v>1517632.7133388922</v>
       </c>
       <c r="HL34" s="15">
-        <f t="shared" si="67"/>
-        <v>1446687.9021679242</v>
+        <f>HK34*(1+$AF$37)</f>
+        <v>1532809.0404722812</v>
       </c>
       <c r="HM34" s="15">
-        <f t="shared" si="67"/>
-        <v>1461154.7811896035</v>
+        <f>HL34*(1+$AF$37)</f>
+        <v>1548137.130877004</v>
       </c>
       <c r="HN34" s="15">
-        <f t="shared" si="67"/>
-        <v>1475766.3290014996</v>
+        <f>HM34*(1+$AF$37)</f>
+        <v>1563618.502185774</v>
       </c>
       <c r="HO34" s="15">
-        <f t="shared" si="67"/>
-        <v>1490523.9922915145</v>
+        <f>HN34*(1+$AF$37)</f>
+        <v>1579254.6872076318</v>
       </c>
     </row>
     <row r="35" spans="1:223" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4455,19 +4455,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:F35" si="68">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="62">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="7" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="7" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="7" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="7">
@@ -4483,19 +4483,19 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="7" t="e">
-        <f t="shared" ref="J35:M35" si="69">J34/J36</f>
+        <f t="shared" ref="J35:M35" si="63">J34/J36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>2.3314040019844553</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>2.3064557542165627</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>2.4896403330722996</v>
       </c>
       <c r="N35" s="7"/>
@@ -4509,28 +4509,28 @@
       <c r="V35" s="7"/>
       <c r="W35" s="4"/>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="70">X34/X36</f>
+        <f t="shared" ref="X35" si="64">X34/X36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35" si="71">Y34/Y36</f>
+        <f t="shared" ref="Y35" si="65">Y34/Y36</f>
         <v>10.112083790400007</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" ref="Z35" si="72">Z34/Z36</f>
-        <v>11.367919191960892</v>
+        <f t="shared" ref="Z35" si="66">Z34/Z36</f>
+        <v>11.546112637254298</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" ref="AA35" si="73">AA34/AA36</f>
-        <v>12.977201195199516</v>
+        <f t="shared" ref="AA35" si="67">AA34/AA36</f>
+        <v>13.376225607565409</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" ref="AB35" si="74">AB34/AB36</f>
-        <v>14.796763230410232</v>
+        <f t="shared" ref="AB35" si="68">AB34/AB36</f>
+        <v>15.467570275753538</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" ref="AC35" si="75">AC34/AC36</f>
-        <v>16.855879453917655</v>
+        <f t="shared" ref="AC35" si="69">AC34/AC36</f>
+        <v>17.859307714786553</v>
       </c>
     </row>
     <row r="36" spans="1:223" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4575,20 +4575,26 @@
         <v>11853.329399999999</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" ref="Z36:AC36" si="76">Y36*1.02</f>
+        <f t="shared" ref="Z36:AC36" si="70">Y36*1.02</f>
         <v>12090.395987999998</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>12332.203907759998</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>12578.847985915199</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>12830.424945633504</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:223" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4599,6 +4605,12 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="38" spans="1:223" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -4609,94 +4621,100 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:M38" si="77">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="71">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.12037646357665222</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.13790092280097244</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.16289062854035441</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>0.13337013030092582</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
-        <f t="shared" ref="P38:AC38" si="78">P22/O22-1</f>
+        <f t="shared" ref="P38:AC38" si="72">P22/O22-1</f>
         <v>0.20376050140018664</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.2280934972859201</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.23416922244272054</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.18299225259464991</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.13892175002428453</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.11544635331115161</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.11717346417191354</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.11889409544522223</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.12061231558237329</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>0.08</v>
       </c>
     </row>
     <row r="39" spans="1:223" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4704,47 +4722,47 @@
         <v>41</v>
       </c>
       <c r="C39" s="17">
-        <f t="shared" ref="C39:M39" si="79">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="73">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>-6.463216162705121E-2</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>6.8643748476184152E-2</v>
       </c>
       <c r="L39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>6.4483656199444184E-2</v>
       </c>
       <c r="M39" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>6.5166213442448884E-2</v>
       </c>
       <c r="N39" s="17"/>
@@ -4761,6 +4779,13 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
+      <c r="AE39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF39" s="1">
+        <f>NPV(AF38,Y34:HO34)+Main!K5-Main!K6</f>
+        <v>2972227.9131441074</v>
+      </c>
     </row>
     <row r="40" spans="1:223" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
@@ -4791,49 +4816,56 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
+      <c r="AE40" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF40" s="7">
+        <f>AF39/Main!K3</f>
+        <v>245.76053523599367</v>
+      </c>
     </row>
     <row r="41" spans="1:223" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" ref="B41:K41" si="80">B24/B22</f>
+        <f t="shared" ref="B41:K41" si="74">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.5970365937451515</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.59514871199236741</v>
       </c>
       <c r="L41" s="5">
@@ -4844,64 +4876,68 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5">
-        <f t="shared" ref="O41:Y41" si="81">O24/O22</f>
+        <f t="shared" ref="O41:Y41" si="75">O24/O22</f>
         <v>0.62448326443525803</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.61072338539935744</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.58975284142161288</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.56475661453003945</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>0.59815574388258508</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" ref="Z41:AC41" si="82">Y41*1.01</f>
-        <v>0.60413730132141097</v>
+        <f>Y41*1.02</f>
+        <v>0.61011885876023675</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="82"/>
-        <v>0.61017867433462514</v>
+        <f t="shared" ref="AA41:AC41" si="76">Z41*1.02</f>
+        <v>0.62232123593544153</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="82"/>
-        <v>0.61628046107797141</v>
+        <f t="shared" si="76"/>
+        <v>0.63476766065415036</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="82"/>
-        <v>0.62244326568875108</v>
+        <f t="shared" si="76"/>
+        <v>0.64746301386723337</v>
+      </c>
+      <c r="AF41" s="4">
+        <f>AF40/Main!K2-1</f>
+        <v>0.15380532974644923</v>
       </c>
     </row>
     <row r="42" spans="1:223" x14ac:dyDescent="0.2">
@@ -4909,113 +4945,113 @@
         <v>18</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B42:M42" si="83">B29/B22</f>
+        <f t="shared" ref="B42:M42" si="77">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.33918478622248821</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.32429377359273243</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.329145061600365</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>0.329145061600365</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
-        <f t="shared" ref="O42:AC42" si="84">O29/O22</f>
+        <f t="shared" ref="O42:AC42" si="78">O29/O22</f>
         <v>0.36678223763168422</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.26265647501938627</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.26186180768536893</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.23826925888028067</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.21148915400631421</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0.33024410105985952</v>
       </c>
       <c r="Z42" s="4">
-        <f t="shared" si="84"/>
-        <v>0.34481244922020049</v>
+        <f t="shared" si="78"/>
+        <v>0.35079400665902638</v>
       </c>
       <c r="AA42" s="4">
-        <f t="shared" si="84"/>
-        <v>0.35898494775536516</v>
+        <f t="shared" si="78"/>
+        <v>0.37112750935618161</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="84"/>
-        <v>0.37277277133523756</v>
+        <f t="shared" si="78"/>
+        <v>0.39125997091141651</v>
       </c>
       <c r="AC42" s="4">
-        <f t="shared" si="84"/>
-        <v>0.38618856598930151</v>
+        <f t="shared" si="78"/>
+        <v>0.41120831416778381</v>
       </c>
     </row>
     <row r="43" spans="1:223" x14ac:dyDescent="0.2">
@@ -5053,47 +5089,47 @@
         <v>86</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:M44" si="85">C19/B19-1</f>
+        <f t="shared" ref="C44:M44" si="79">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>-8.1218636287963442E-2</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>6.8324187202319253E-2</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>5.7111687241801157E-2</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>5.7533819856866897E-2</v>
       </c>
       <c r="N44" s="4"/>
@@ -5103,43 +5139,43 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4">
-        <f t="shared" ref="T44:AC44" si="86">T19/S19-1</f>
+        <f t="shared" ref="T44:AC44" si="80">T19/S19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.11285074705670151</v>
       </c>
       <c r="Z44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.10133712924974625</v>
       </c>
       <c r="AA44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.10208845244455511</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.10278475402585263</v>
       </c>
       <c r="AC44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.10342940151292823</v>
       </c>
     </row>
@@ -5148,47 +5184,47 @@
         <v>35</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" ref="C45:M45" si="87">C20/B20-1</f>
+        <f t="shared" ref="C45:M45" si="81">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>2.5512337933918827E-2</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.11125611745513875</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="N45" s="4"/>
@@ -5201,31 +5237,31 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4">
-        <f t="shared" ref="W45:AC45" si="88">W20/V20-1</f>
+        <f t="shared" ref="W45:AC45" si="82">W20/V20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="Y45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.33689815633024134</v>
       </c>
       <c r="Z45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AA45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -5234,51 +5270,51 @@
         <v>48</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:M46" si="89">B20/B22</f>
+        <f t="shared" ref="B46:M46" si="83">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.13586896291863376</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.14128676318081884</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.14732805545426356</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.15352922341173034</v>
       </c>
       <c r="N46" s="4"/>
@@ -5286,47 +5322,47 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="S46" s="4">
-        <f t="shared" ref="S46:AC46" si="90">S20/S22</f>
+        <f t="shared" ref="S46:AC46" si="84">S20/S22</f>
         <v>0</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>9.2916036148156522E-2</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.10764035732642797</v>
       </c>
       <c r="X46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.12350507688176036</v>
       </c>
       <c r="Y46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.14497370831413969</v>
       </c>
       <c r="Z46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.1559630810218261</v>
       </c>
       <c r="AA46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.16752608545434564</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.17966964287645279</v>
       </c>
       <c r="AC46" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.19239800281839298</v>
       </c>
     </row>
@@ -5506,43 +5542,43 @@
         <v>49</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ref="B53:K53" si="91">B54-B69</f>
+        <f t="shared" ref="B53:K53" si="85">B54-B69</f>
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>84774</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>61514</v>
       </c>
       <c r="L53" s="1">
@@ -5554,43 +5590,43 @@
         <v>118639.86008801183</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" ref="O53:X53" si="92">O54-O69</f>
+        <f t="shared" ref="O53:X53" si="86">O54-O69</f>
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>99046</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>84774</v>
       </c>
       <c r="Y53" s="1">
@@ -5599,19 +5635,19 @@
       </c>
       <c r="Z53" s="1">
         <f>Y53+Z34</f>
-        <v>256082.50467840399</v>
+        <v>258236.93399446728</v>
       </c>
       <c r="AA53" s="1">
         <f>Z53+AA34</f>
-        <v>416119.99596963119</v>
+        <v>423195.27570316475</v>
       </c>
       <c r="AB53" s="1">
         <f>AA53+AB34</f>
-        <v>602246.23132854095</v>
+        <v>617759.49091332895</v>
       </c>
       <c r="AC53" s="1">
         <f>AB53+AC34</f>
-        <v>818514.32755467726</v>
+        <v>846901.9981288712</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5926,112 +5962,112 @@
         <v>51</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" ref="B76:M76" si="93">+B34</f>
+        <f t="shared" ref="B76:M76" si="87">+B34</f>
         <v>15051</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>18368</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>19689</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>20687</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>23662</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>23619</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>26301</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>26536</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>34540</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>28196</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>27615.333132580159</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>29510.526955431676</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" ref="O76:AC76" si="94">+O34</f>
+        <f t="shared" ref="O76:AC76" si="88">+O34</f>
         <v>24495</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>19470</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>15510</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>35810</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>34343</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>40269</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>64013</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>63486</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>73975</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>100122</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>119861.86008801183</v>
       </c>
       <c r="Z76" s="1">
-        <f t="shared" si="94"/>
-        <v>137442.64459039216</v>
+        <f t="shared" si="88"/>
+        <v>139597.07390645545</v>
       </c>
       <c r="AA76" s="1">
-        <f t="shared" si="94"/>
-        <v>160037.4912912272</v>
+        <f t="shared" si="88"/>
+        <v>164958.3417086975</v>
       </c>
       <c r="AB76" s="1">
-        <f t="shared" si="94"/>
-        <v>186126.23535890982</v>
+        <f t="shared" si="88"/>
+        <v>194564.2152101642</v>
       </c>
       <c r="AC76" s="1">
-        <f t="shared" si="94"/>
-        <v>216268.09622613632</v>
+        <f t="shared" si="88"/>
+        <v>229142.50721554228</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -6052,15 +6088,15 @@
         <v>34540</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" ref="K77:M77" si="95">K76</f>
+        <f t="shared" ref="K77:M77" si="89">K76</f>
         <v>28196</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>27615.333132580159</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>29510.526955431676</v>
       </c>
       <c r="V77" s="1">
@@ -6077,20 +6113,20 @@
         <v>119861.86008801183</v>
       </c>
       <c r="Z77" s="1">
-        <f t="shared" ref="Z77:AC77" si="96">Z76</f>
-        <v>137442.64459039216</v>
+        <f t="shared" ref="Z77:AC77" si="90">Z76</f>
+        <v>139597.07390645545</v>
       </c>
       <c r="AA77" s="1">
-        <f t="shared" si="96"/>
-        <v>160037.4912912272</v>
+        <f t="shared" si="90"/>
+        <v>164958.3417086975</v>
       </c>
       <c r="AB77" s="1">
-        <f t="shared" si="96"/>
-        <v>186126.23535890982</v>
+        <f t="shared" si="90"/>
+        <v>194564.2152101642</v>
       </c>
       <c r="AC77" s="1">
-        <f t="shared" si="96"/>
-        <v>216268.09622613632</v>
+        <f t="shared" si="90"/>
+        <v>229142.50721554228</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
@@ -6114,19 +6150,19 @@
         <v>17607.649999999998</v>
       </c>
       <c r="Z78" s="1">
-        <f t="shared" ref="Z78:AC78" si="97">Y78*1.15</f>
+        <f t="shared" ref="Z78:AC78" si="91">Y78*1.15</f>
         <v>20248.797499999997</v>
       </c>
       <c r="AA78" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>23286.117124999993</v>
       </c>
       <c r="AB78" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>26779.034693749989</v>
       </c>
       <c r="AC78" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>30795.889897812485</v>
       </c>
     </row>
@@ -6151,19 +6187,19 @@
         <v>23924.25</v>
       </c>
       <c r="Z79" s="1">
-        <f t="shared" ref="Z79:AC79" si="98">Y79*1.05</f>
+        <f t="shared" ref="Z79:AC79" si="92">Y79*1.05</f>
         <v>25120.462500000001</v>
       </c>
       <c r="AA79" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>26376.485625000001</v>
       </c>
       <c r="AB79" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>27695.309906250004</v>
       </c>
       <c r="AC79" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>29080.075401562506</v>
       </c>
     </row>
@@ -6462,12 +6498,6 @@
         <f>AB87*(1+AC38)</f>
         <v>-2066.0450122221932</v>
       </c>
-      <c r="AE87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF87" s="4">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="88" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -6505,12 +6535,6 @@
         <f>AB88*(1+AC38)</f>
         <v>1884.5320137323881</v>
       </c>
-      <c r="AE88" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF88" s="4">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="89" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -6547,12 +6571,6 @@
       <c r="AC89" s="1">
         <f>AB89*(1+AC38)</f>
         <v>1856.0593865183012</v>
-      </c>
-      <c r="AE89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF89" s="4">
-        <v>0.08</v>
       </c>
     </row>
     <row r="90" spans="1:166" x14ac:dyDescent="0.2">
@@ -6611,39 +6629,32 @@
         <v>91495</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" ref="W90:AC90" si="99">SUM(W77:W89)</f>
+        <f t="shared" ref="W90:AC90" si="93">SUM(W77:W89)</f>
         <v>101746</v>
       </c>
       <c r="X90" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>123779</v>
       </c>
       <c r="Y90" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>144953.42462641129</v>
       </c>
       <c r="Z90" s="3">
-        <f t="shared" si="99"/>
-        <v>164473.59235253779</v>
+        <f t="shared" si="93"/>
+        <v>166628.02166860108</v>
       </c>
       <c r="AA90" s="3">
-        <f t="shared" si="99"/>
-        <v>189213.01823139723</v>
+        <f t="shared" si="93"/>
+        <v>194133.86864886753</v>
       </c>
       <c r="AB90" s="3">
-        <f t="shared" si="99"/>
-        <v>217677.71180235245</v>
+        <f t="shared" si="93"/>
+        <v>226115.69165360683</v>
       </c>
       <c r="AC90" s="3">
-        <f t="shared" si="99"/>
-        <v>250456.41316080216</v>
-      </c>
-      <c r="AE90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF90" s="1">
-        <f>NPV(AF89,Y94:FJ94)+Main!K5-Main!K6</f>
-        <v>2568643.8918113653</v>
+        <f t="shared" si="93"/>
+        <v>263330.82415020815</v>
       </c>
     </row>
     <row r="91" spans="1:166" x14ac:dyDescent="0.2">
@@ -6705,27 +6716,20 @@
         <v>-85000</v>
       </c>
       <c r="Z91" s="1">
-        <f>Y91*1.05</f>
-        <v>-89250</v>
+        <f>Y91*1.2</f>
+        <v>-102000</v>
       </c>
       <c r="AA91" s="1">
-        <f t="shared" ref="AA91:AC91" si="100">Z91*1.05</f>
-        <v>-93712.5</v>
+        <f t="shared" ref="AA91:AC91" si="94">Z91*1.2</f>
+        <v>-122400</v>
       </c>
       <c r="AB91" s="1">
-        <f t="shared" si="100"/>
-        <v>-98398.125</v>
+        <f t="shared" si="94"/>
+        <v>-146880</v>
       </c>
       <c r="AC91" s="1">
-        <f t="shared" si="100"/>
-        <v>-103318.03125</v>
-      </c>
-      <c r="AE91" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF91" s="7">
-        <f>AF90/Main!K3</f>
-        <v>212.38993648183936</v>
+        <f t="shared" si="94"/>
+        <v>-176256</v>
       </c>
     </row>
     <row r="92" spans="1:166" x14ac:dyDescent="0.2">
@@ -6768,10 +6772,6 @@
         <f>AB92*(1+AC38)</f>
         <v>17670.824264742791</v>
       </c>
-      <c r="AF92" s="4">
-        <f>AF91/Main!K2-1</f>
-        <v>4.1127139616859543E-2</v>
-      </c>
     </row>
     <row r="93" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
@@ -6820,753 +6820,753 @@
         <v>0</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" ref="C94:K94" si="101">C90+C91</f>
+        <f t="shared" ref="C94:K94" si="95">C90+C91</f>
         <v>28666</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>13454</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>17637</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>24837</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>18953</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>5301</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3">
-        <f t="shared" ref="O94:V94" si="102">O90+O91</f>
+        <f t="shared" ref="O94:V94" si="96">O90+O91</f>
         <v>16110</v>
       </c>
       <c r="P94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>25830</v>
       </c>
       <c r="Q94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>23910</v>
       </c>
       <c r="R94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>22830</v>
       </c>
       <c r="S94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>30970</v>
       </c>
       <c r="T94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>42840</v>
       </c>
       <c r="U94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>67010</v>
       </c>
       <c r="V94" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>60010</v>
       </c>
       <c r="W94" s="3">
-        <f t="shared" ref="W94:AC94" si="103">W90+W91</f>
+        <f t="shared" ref="W94:AC94" si="97">W90+W91</f>
         <v>69495</v>
       </c>
       <c r="X94" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>71244</v>
       </c>
       <c r="Y94" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>59953.424626411288</v>
       </c>
       <c r="Z94" s="3">
-        <f t="shared" si="103"/>
-        <v>75223.592352537788</v>
+        <f t="shared" si="97"/>
+        <v>64628.021668601083</v>
       </c>
       <c r="AA94" s="3">
-        <f t="shared" si="103"/>
-        <v>95500.518231397233</v>
+        <f t="shared" si="97"/>
+        <v>71733.86864886753</v>
       </c>
       <c r="AB94" s="3">
-        <f t="shared" si="103"/>
-        <v>119279.58680235245</v>
+        <f t="shared" si="97"/>
+        <v>79235.691653606831</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" si="103"/>
-        <v>147138.38191080216</v>
+        <f t="shared" si="97"/>
+        <v>87074.824150208151</v>
       </c>
       <c r="AD94" s="3">
         <f>AD34</f>
-        <v>218430.77718839768</v>
+        <v>231433.93228769771</v>
       </c>
       <c r="AE94" s="3">
-        <f t="shared" ref="AE94:BJ94" si="104">AD94*(1+$AF$88)</f>
-        <v>220615.08496028167</v>
+        <f>AD94*(1+$AF$37)</f>
+        <v>233748.27161057468</v>
       </c>
       <c r="AF94" s="3">
-        <f t="shared" si="104"/>
-        <v>222821.2358098845</v>
+        <f>AE94*(1+$AF$37)</f>
+        <v>236085.75432668044</v>
       </c>
       <c r="AG94" s="3">
-        <f t="shared" si="104"/>
-        <v>225049.44816798336</v>
+        <f>AF94*(1+$AF$37)</f>
+        <v>238446.61186994726</v>
       </c>
       <c r="AH94" s="3">
-        <f t="shared" si="104"/>
-        <v>227299.94264966319</v>
+        <f>AG94*(1+$AF$37)</f>
+        <v>240831.07798864672</v>
       </c>
       <c r="AI94" s="3">
-        <f t="shared" si="104"/>
-        <v>229572.94207615982</v>
+        <f>AH94*(1+$AF$37)</f>
+        <v>243239.38876853319</v>
       </c>
       <c r="AJ94" s="3">
-        <f t="shared" si="104"/>
-        <v>231868.67149692142</v>
+        <f>AI94*(1+$AF$37)</f>
+        <v>245671.78265621851</v>
       </c>
       <c r="AK94" s="3">
-        <f t="shared" si="104"/>
-        <v>234187.35821189065</v>
+        <f>AJ94*(1+$AF$37)</f>
+        <v>248128.50048278068</v>
       </c>
       <c r="AL94" s="3">
-        <f t="shared" si="104"/>
-        <v>236529.23179400957</v>
+        <f>AK94*(1+$AF$37)</f>
+        <v>250609.78548760849</v>
       </c>
       <c r="AM94" s="3">
-        <f t="shared" si="104"/>
-        <v>238894.52411194966</v>
+        <f>AL94*(1+$AF$37)</f>
+        <v>253115.88334248457</v>
       </c>
       <c r="AN94" s="3">
-        <f t="shared" si="104"/>
-        <v>241283.46935306917</v>
+        <f>AM94*(1+$AF$37)</f>
+        <v>255647.04217590942</v>
       </c>
       <c r="AO94" s="3">
-        <f t="shared" si="104"/>
-        <v>243696.30404659986</v>
+        <f>AN94*(1+$AF$37)</f>
+        <v>258203.51259766851</v>
       </c>
       <c r="AP94" s="3">
-        <f t="shared" si="104"/>
-        <v>246133.26708706588</v>
+        <f>AO94*(1+$AF$37)</f>
+        <v>260785.5477236452</v>
       </c>
       <c r="AQ94" s="3">
-        <f t="shared" si="104"/>
-        <v>248594.59975793655</v>
+        <f>AP94*(1+$AF$37)</f>
+        <v>263393.40320088167</v>
       </c>
       <c r="AR94" s="3">
-        <f t="shared" si="104"/>
-        <v>251080.54575551592</v>
+        <f>AQ94*(1+$AF$37)</f>
+        <v>266027.33723289048</v>
       </c>
       <c r="AS94" s="3">
-        <f t="shared" si="104"/>
-        <v>253591.35121307109</v>
+        <f>AR94*(1+$AF$37)</f>
+        <v>268687.61060521938</v>
       </c>
       <c r="AT94" s="3">
-        <f t="shared" si="104"/>
-        <v>256127.26472520179</v>
+        <f>AS94*(1+$AF$37)</f>
+        <v>271374.48671127157</v>
       </c>
       <c r="AU94" s="3">
-        <f t="shared" si="104"/>
-        <v>258688.53737245381</v>
+        <f>AT94*(1+$AF$37)</f>
+        <v>274088.23157838429</v>
       </c>
       <c r="AV94" s="3">
-        <f t="shared" si="104"/>
-        <v>261275.42274617834</v>
+        <f>AU94*(1+$AF$37)</f>
+        <v>276829.11389416811</v>
       </c>
       <c r="AW94" s="3">
-        <f t="shared" si="104"/>
-        <v>263888.1769736401</v>
+        <f>AV94*(1+$AF$37)</f>
+        <v>279597.40503310977</v>
       </c>
       <c r="AX94" s="3">
-        <f t="shared" si="104"/>
-        <v>266527.05874337652</v>
+        <f>AW94*(1+$AF$37)</f>
+        <v>282393.37908344087</v>
       </c>
       <c r="AY94" s="3">
-        <f t="shared" si="104"/>
-        <v>269192.32933081029</v>
+        <f>AX94*(1+$AF$37)</f>
+        <v>285217.31287427526</v>
       </c>
       <c r="AZ94" s="3">
-        <f t="shared" si="104"/>
-        <v>271884.25262411841</v>
+        <f>AY94*(1+$AF$37)</f>
+        <v>288069.48600301804</v>
       </c>
       <c r="BA94" s="3">
-        <f t="shared" si="104"/>
-        <v>274603.09515035962</v>
+        <f>AZ94*(1+$AF$37)</f>
+        <v>290950.18086304824</v>
       </c>
       <c r="BB94" s="3">
-        <f t="shared" si="104"/>
-        <v>277349.12610186322</v>
+        <f>BA94*(1+$AF$37)</f>
+        <v>293859.68267167872</v>
       </c>
       <c r="BC94" s="3">
-        <f t="shared" si="104"/>
-        <v>280122.61736288184</v>
+        <f>BB94*(1+$AF$37)</f>
+        <v>296798.27949839551</v>
       </c>
       <c r="BD94" s="3">
-        <f t="shared" si="104"/>
-        <v>282923.84353651066</v>
+        <f>BC94*(1+$AF$37)</f>
+        <v>299766.26229337946</v>
       </c>
       <c r="BE94" s="3">
-        <f t="shared" si="104"/>
-        <v>285753.08197187574</v>
+        <f>BD94*(1+$AF$37)</f>
+        <v>302763.92491631326</v>
       </c>
       <c r="BF94" s="3">
-        <f t="shared" si="104"/>
-        <v>288610.61279159453</v>
+        <f>BE94*(1+$AF$37)</f>
+        <v>305791.56416547642</v>
       </c>
       <c r="BG94" s="3">
-        <f t="shared" si="104"/>
-        <v>291496.71891951049</v>
+        <f>BF94*(1+$AF$37)</f>
+        <v>308849.47980713117</v>
       </c>
       <c r="BH94" s="3">
-        <f t="shared" si="104"/>
-        <v>294411.68610870559</v>
+        <f>BG94*(1+$AF$37)</f>
+        <v>311937.9746052025</v>
       </c>
       <c r="BI94" s="3">
-        <f t="shared" si="104"/>
-        <v>297355.80296979262</v>
+        <f>BH94*(1+$AF$37)</f>
+        <v>315057.35435125453</v>
       </c>
       <c r="BJ94" s="3">
-        <f t="shared" si="104"/>
-        <v>300329.36099949054</v>
+        <f>BI94*(1+$AF$37)</f>
+        <v>318207.92789476708</v>
       </c>
       <c r="BK94" s="3">
-        <f t="shared" ref="BK94:CP94" si="105">BJ94*(1+$AF$88)</f>
-        <v>303332.65460948547</v>
+        <f>BJ94*(1+$AF$37)</f>
+        <v>321390.00717371475</v>
       </c>
       <c r="BL94" s="3">
-        <f t="shared" si="105"/>
-        <v>306365.98115558032</v>
+        <f>BK94*(1+$AF$37)</f>
+        <v>324603.90724545188</v>
       </c>
       <c r="BM94" s="3">
-        <f t="shared" si="105"/>
-        <v>309429.64096713613</v>
+        <f>BL94*(1+$AF$37)</f>
+        <v>327849.94631790638</v>
       </c>
       <c r="BN94" s="3">
-        <f t="shared" si="105"/>
-        <v>312523.9373768075</v>
+        <f>BM94*(1+$AF$37)</f>
+        <v>331128.44578108547</v>
       </c>
       <c r="BO94" s="3">
-        <f t="shared" si="105"/>
-        <v>315649.1767505756</v>
+        <f>BN94*(1+$AF$37)</f>
+        <v>334439.73023889633</v>
       </c>
       <c r="BP94" s="3">
-        <f t="shared" si="105"/>
-        <v>318805.66851808137</v>
+        <f>BO94*(1+$AF$37)</f>
+        <v>337784.1275412853</v>
       </c>
       <c r="BQ94" s="3">
-        <f t="shared" si="105"/>
-        <v>321993.72520326218</v>
+        <f>BP94*(1+$AF$37)</f>
+        <v>341161.96881669818</v>
       </c>
       <c r="BR94" s="3">
-        <f t="shared" si="105"/>
-        <v>325213.66245529481</v>
+        <f>BQ94*(1+$AF$37)</f>
+        <v>344573.58850486518</v>
       </c>
       <c r="BS94" s="3">
-        <f t="shared" si="105"/>
-        <v>328465.79907984775</v>
+        <f>BR94*(1+$AF$37)</f>
+        <v>348019.32438991382</v>
       </c>
       <c r="BT94" s="3">
-        <f t="shared" si="105"/>
-        <v>331750.45707064623</v>
+        <f>BS94*(1+$AF$37)</f>
+        <v>351499.51763381297</v>
       </c>
       <c r="BU94" s="3">
-        <f t="shared" si="105"/>
-        <v>335067.96164135268</v>
+        <f>BT94*(1+$AF$37)</f>
+        <v>355014.51281015109</v>
       </c>
       <c r="BV94" s="3">
-        <f t="shared" si="105"/>
-        <v>338418.64125776623</v>
+        <f>BU94*(1+$AF$37)</f>
+        <v>358564.65793825261</v>
       </c>
       <c r="BW94" s="3">
-        <f t="shared" si="105"/>
-        <v>341802.82767034392</v>
+        <f>BV94*(1+$AF$37)</f>
+        <v>362150.30451763514</v>
       </c>
       <c r="BX94" s="3">
-        <f t="shared" si="105"/>
-        <v>345220.85594704736</v>
+        <f>BW94*(1+$AF$37)</f>
+        <v>365771.80756281147</v>
       </c>
       <c r="BY94" s="3">
-        <f t="shared" si="105"/>
-        <v>348673.06450651784</v>
+        <f>BX94*(1+$AF$37)</f>
+        <v>369429.52563843958</v>
       </c>
       <c r="BZ94" s="3">
-        <f t="shared" si="105"/>
-        <v>352159.79515158304</v>
+        <f>BY94*(1+$AF$37)</f>
+        <v>373123.82089482399</v>
       </c>
       <c r="CA94" s="3">
-        <f t="shared" si="105"/>
-        <v>355681.39310309885</v>
+        <f>BZ94*(1+$AF$37)</f>
+        <v>376855.05910377222</v>
       </c>
       <c r="CB94" s="3">
-        <f t="shared" si="105"/>
-        <v>359238.20703412982</v>
+        <f>CA94*(1+$AF$37)</f>
+        <v>380623.60969480994</v>
       </c>
       <c r="CC94" s="3">
-        <f t="shared" si="105"/>
-        <v>362830.58910447115</v>
+        <f>CB94*(1+$AF$37)</f>
+        <v>384429.84579175804</v>
       </c>
       <c r="CD94" s="3">
-        <f t="shared" si="105"/>
-        <v>366458.89499551588</v>
+        <f>CC94*(1+$AF$37)</f>
+        <v>388274.14424967562</v>
       </c>
       <c r="CE94" s="3">
-        <f t="shared" si="105"/>
-        <v>370123.48394547106</v>
+        <f>CD94*(1+$AF$37)</f>
+        <v>392156.88569217239</v>
       </c>
       <c r="CF94" s="3">
-        <f t="shared" si="105"/>
-        <v>373824.71878492576</v>
+        <f>CE94*(1+$AF$37)</f>
+        <v>396078.45454909414</v>
       </c>
       <c r="CG94" s="3">
-        <f t="shared" si="105"/>
-        <v>377562.96597277501</v>
+        <f>CF94*(1+$AF$37)</f>
+        <v>400039.23909458506</v>
       </c>
       <c r="CH94" s="3">
-        <f t="shared" si="105"/>
-        <v>381338.59563250275</v>
+        <f>CG94*(1+$AF$37)</f>
+        <v>404039.63148553093</v>
       </c>
       <c r="CI94" s="3">
-        <f t="shared" si="105"/>
-        <v>385151.9815888278</v>
+        <f>CH94*(1+$AF$37)</f>
+        <v>408080.02780038625</v>
       </c>
       <c r="CJ94" s="3">
-        <f t="shared" si="105"/>
-        <v>389003.50140471605</v>
+        <f>CI94*(1+$AF$37)</f>
+        <v>412160.8280783901</v>
       </c>
       <c r="CK94" s="3">
-        <f t="shared" si="105"/>
-        <v>392893.53641876322</v>
+        <f>CJ94*(1+$AF$37)</f>
+        <v>416282.43635917403</v>
       </c>
       <c r="CL94" s="3">
-        <f t="shared" si="105"/>
-        <v>396822.47178295086</v>
+        <f>CK94*(1+$AF$37)</f>
+        <v>420445.26072276576</v>
       </c>
       <c r="CM94" s="3">
-        <f t="shared" si="105"/>
-        <v>400790.69650078035</v>
+        <f>CL94*(1+$AF$37)</f>
+        <v>424649.71332999342</v>
       </c>
       <c r="CN94" s="3">
-        <f t="shared" si="105"/>
-        <v>404798.60346578818</v>
+        <f>CM94*(1+$AF$37)</f>
+        <v>428896.21046329336</v>
       </c>
       <c r="CO94" s="3">
-        <f t="shared" si="105"/>
-        <v>408846.58950044605</v>
+        <f>CN94*(1+$AF$37)</f>
+        <v>433185.17256792629</v>
       </c>
       <c r="CP94" s="3">
-        <f t="shared" si="105"/>
-        <v>412935.0553954505</v>
+        <f>CO94*(1+$AF$37)</f>
+        <v>437517.02429360553</v>
       </c>
       <c r="CQ94" s="3">
-        <f t="shared" ref="CQ94:DV94" si="106">CP94*(1+$AF$88)</f>
-        <v>417064.40594940499</v>
+        <f>CP94*(1+$AF$37)</f>
+        <v>441892.19453654159</v>
       </c>
       <c r="CR94" s="3">
-        <f t="shared" si="106"/>
-        <v>421235.05000889907</v>
+        <f>CQ94*(1+$AF$37)</f>
+        <v>446311.11648190703</v>
       </c>
       <c r="CS94" s="3">
-        <f t="shared" si="106"/>
-        <v>425447.40050898807</v>
+        <f>CR94*(1+$AF$37)</f>
+        <v>450774.22764672613</v>
       </c>
       <c r="CT94" s="3">
-        <f t="shared" si="106"/>
-        <v>429701.87451407796</v>
+        <f>CS94*(1+$AF$37)</f>
+        <v>455281.96992319339</v>
       </c>
       <c r="CU94" s="3">
-        <f t="shared" si="106"/>
-        <v>433998.89325921872</v>
+        <f>CT94*(1+$AF$37)</f>
+        <v>459834.78962242533</v>
       </c>
       <c r="CV94" s="3">
-        <f t="shared" si="106"/>
-        <v>438338.88219181093</v>
+        <f>CU94*(1+$AF$37)</f>
+        <v>464433.13751864957</v>
       </c>
       <c r="CW94" s="3">
-        <f t="shared" si="106"/>
-        <v>442722.27101372904</v>
+        <f>CV94*(1+$AF$37)</f>
+        <v>469077.46889383608</v>
       </c>
       <c r="CX94" s="3">
-        <f t="shared" si="106"/>
-        <v>447149.49372386636</v>
+        <f>CW94*(1+$AF$37)</f>
+        <v>473768.24358277442</v>
       </c>
       <c r="CY94" s="3">
-        <f t="shared" si="106"/>
-        <v>451620.98866110505</v>
+        <f>CX94*(1+$AF$37)</f>
+        <v>478505.92601860216</v>
       </c>
       <c r="CZ94" s="3">
-        <f t="shared" si="106"/>
-        <v>456137.19854771608</v>
+        <f>CY94*(1+$AF$37)</f>
+        <v>483290.9852787882</v>
       </c>
       <c r="DA94" s="3">
-        <f t="shared" si="106"/>
-        <v>460698.57053319324</v>
+        <f>CZ94*(1+$AF$37)</f>
+        <v>488123.89513157611</v>
       </c>
       <c r="DB94" s="3">
-        <f t="shared" si="106"/>
-        <v>465305.5562385252</v>
+        <f>DA94*(1+$AF$37)</f>
+        <v>493005.13408289186</v>
       </c>
       <c r="DC94" s="3">
-        <f t="shared" si="106"/>
-        <v>469958.61180091044</v>
+        <f>DB94*(1+$AF$37)</f>
+        <v>497935.1854237208</v>
       </c>
       <c r="DD94" s="3">
-        <f t="shared" si="106"/>
-        <v>474658.19791891956</v>
+        <f>DC94*(1+$AF$37)</f>
+        <v>502914.53727795801</v>
       </c>
       <c r="DE94" s="3">
-        <f t="shared" si="106"/>
-        <v>479404.77989810874</v>
+        <f>DD94*(1+$AF$37)</f>
+        <v>507943.68265073758</v>
       </c>
       <c r="DF94" s="3">
-        <f t="shared" si="106"/>
-        <v>484198.82769708982</v>
+        <f>DE94*(1+$AF$37)</f>
+        <v>513023.11947724497</v>
       </c>
       <c r="DG94" s="3">
-        <f t="shared" si="106"/>
-        <v>489040.81597406074</v>
+        <f>DF94*(1+$AF$37)</f>
+        <v>518153.35067201743</v>
       </c>
       <c r="DH94" s="3">
-        <f t="shared" si="106"/>
-        <v>493931.22413380136</v>
+        <f>DG94*(1+$AF$37)</f>
+        <v>523334.88417873759</v>
       </c>
       <c r="DI94" s="3">
-        <f t="shared" si="106"/>
-        <v>498870.53637513937</v>
+        <f>DH94*(1+$AF$37)</f>
+        <v>528568.23302052496</v>
       </c>
       <c r="DJ94" s="3">
-        <f t="shared" si="106"/>
-        <v>503859.24173889076</v>
+        <f>DI94*(1+$AF$37)</f>
+        <v>533853.91535073018</v>
       </c>
       <c r="DK94" s="3">
-        <f t="shared" si="106"/>
-        <v>508897.83415627968</v>
+        <f>DJ94*(1+$AF$37)</f>
+        <v>539192.45450423751</v>
       </c>
       <c r="DL94" s="3">
-        <f t="shared" si="106"/>
-        <v>513986.81249784247</v>
+        <f>DK94*(1+$AF$37)</f>
+        <v>544584.37904927984</v>
       </c>
       <c r="DM94" s="3">
-        <f t="shared" si="106"/>
-        <v>519126.68062282092</v>
+        <f>DL94*(1+$AF$37)</f>
+        <v>550030.2228397727</v>
       </c>
       <c r="DN94" s="3">
-        <f t="shared" si="106"/>
-        <v>524317.94742904918</v>
+        <f>DM94*(1+$AF$37)</f>
+        <v>555530.52506817039</v>
       </c>
       <c r="DO94" s="3">
-        <f t="shared" si="106"/>
-        <v>529561.12690333964</v>
+        <f>DN94*(1+$AF$37)</f>
+        <v>561085.83031885209</v>
       </c>
       <c r="DP94" s="3">
-        <f t="shared" si="106"/>
-        <v>534856.73817237304</v>
+        <f>DO94*(1+$AF$37)</f>
+        <v>566696.68862204067</v>
       </c>
       <c r="DQ94" s="3">
-        <f t="shared" si="106"/>
-        <v>540205.30555409682</v>
+        <f>DP94*(1+$AF$37)</f>
+        <v>572363.65550826106</v>
       </c>
       <c r="DR94" s="3">
-        <f t="shared" si="106"/>
-        <v>545607.35860963783</v>
+        <f>DQ94*(1+$AF$37)</f>
+        <v>578087.29206334369</v>
       </c>
       <c r="DS94" s="3">
-        <f t="shared" si="106"/>
-        <v>551063.43219573423</v>
+        <f>DR94*(1+$AF$37)</f>
+        <v>583868.1649839771</v>
       </c>
       <c r="DT94" s="3">
-        <f t="shared" si="106"/>
-        <v>556574.06651769159</v>
+        <f>DS94*(1+$AF$37)</f>
+        <v>589706.84663381684</v>
       </c>
       <c r="DU94" s="3">
-        <f t="shared" si="106"/>
-        <v>562139.80718286848</v>
+        <f>DT94*(1+$AF$37)</f>
+        <v>595603.91510015505</v>
       </c>
       <c r="DV94" s="3">
-        <f t="shared" si="106"/>
-        <v>567761.20525469712</v>
+        <f>DU94*(1+$AF$37)</f>
+        <v>601559.95425115665</v>
       </c>
       <c r="DW94" s="3">
-        <f t="shared" ref="DW94:FB94" si="107">DV94*(1+$AF$88)</f>
-        <v>573438.81730724405</v>
+        <f>DV94*(1+$AF$37)</f>
+        <v>607575.55379366828</v>
       </c>
       <c r="DX94" s="3">
-        <f t="shared" si="107"/>
-        <v>579173.20548031654</v>
+        <f>DW94*(1+$AF$37)</f>
+        <v>613651.30933160498</v>
       </c>
       <c r="DY94" s="3">
-        <f t="shared" si="107"/>
-        <v>584964.93753511971</v>
+        <f>DX94*(1+$AF$37)</f>
+        <v>619787.82242492109</v>
       </c>
       <c r="DZ94" s="3">
-        <f t="shared" si="107"/>
-        <v>590814.58691047085</v>
+        <f>DY94*(1+$AF$37)</f>
+        <v>625985.70064917032</v>
       </c>
       <c r="EA94" s="3">
-        <f t="shared" si="107"/>
-        <v>596722.73277957551</v>
+        <f>DZ94*(1+$AF$37)</f>
+        <v>632245.55765566207</v>
       </c>
       <c r="EB94" s="3">
-        <f t="shared" si="107"/>
-        <v>602689.96010737133</v>
+        <f>EA94*(1+$AF$37)</f>
+        <v>638568.01323221868</v>
       </c>
       <c r="EC94" s="3">
-        <f t="shared" si="107"/>
-        <v>608716.85970844503</v>
+        <f>EB94*(1+$AF$37)</f>
+        <v>644953.69336454093</v>
       </c>
       <c r="ED94" s="3">
-        <f t="shared" si="107"/>
-        <v>614804.0283055295</v>
+        <f>EC94*(1+$AF$37)</f>
+        <v>651403.2302981863</v>
       </c>
       <c r="EE94" s="3">
-        <f t="shared" si="107"/>
-        <v>620952.06858858478</v>
+        <f>ED94*(1+$AF$37)</f>
+        <v>657917.26260116813</v>
       </c>
       <c r="EF94" s="3">
-        <f t="shared" si="107"/>
-        <v>627161.58927447058</v>
+        <f>EE94*(1+$AF$37)</f>
+        <v>664496.43522717978</v>
       </c>
       <c r="EG94" s="3">
-        <f t="shared" si="107"/>
-        <v>633433.20516721532</v>
+        <f>EF94*(1+$AF$37)</f>
+        <v>671141.39957945154</v>
       </c>
       <c r="EH94" s="3">
-        <f t="shared" si="107"/>
-        <v>639767.53721888748</v>
+        <f>EG94*(1+$AF$37)</f>
+        <v>677852.81357524602</v>
       </c>
       <c r="EI94" s="3">
-        <f t="shared" si="107"/>
-        <v>646165.21259107639</v>
+        <f>EH94*(1+$AF$37)</f>
+        <v>684631.34171099844</v>
       </c>
       <c r="EJ94" s="3">
-        <f t="shared" si="107"/>
-        <v>652626.86471698713</v>
+        <f>EI94*(1+$AF$37)</f>
+        <v>691477.65512810845</v>
       </c>
       <c r="EK94" s="3">
-        <f t="shared" si="107"/>
-        <v>659153.13336415705</v>
+        <f>EJ94*(1+$AF$37)</f>
+        <v>698392.43167938956</v>
       </c>
       <c r="EL94" s="3">
-        <f t="shared" si="107"/>
-        <v>665744.66469779867</v>
+        <f>EK94*(1+$AF$37)</f>
+        <v>705376.35599618347</v>
       </c>
       <c r="EM94" s="3">
-        <f t="shared" si="107"/>
-        <v>672402.1113447767</v>
+        <f>EL94*(1+$AF$37)</f>
+        <v>712430.11955614528</v>
       </c>
       <c r="EN94" s="3">
-        <f t="shared" si="107"/>
-        <v>679126.13245822443</v>
+        <f>EM94*(1+$AF$37)</f>
+        <v>719554.4207517067</v>
       </c>
       <c r="EO94" s="3">
-        <f t="shared" si="107"/>
-        <v>685917.3937828067</v>
+        <f>EN94*(1+$AF$37)</f>
+        <v>726749.96495922375</v>
       </c>
       <c r="EP94" s="3">
-        <f t="shared" si="107"/>
-        <v>692776.56772063475</v>
+        <f>EO94*(1+$AF$37)</f>
+        <v>734017.46460881596</v>
       </c>
       <c r="EQ94" s="3">
-        <f t="shared" si="107"/>
-        <v>699704.33339784108</v>
+        <f>EP94*(1+$AF$37)</f>
+        <v>741357.63925490412</v>
       </c>
       <c r="ER94" s="3">
-        <f t="shared" si="107"/>
-        <v>706701.37673181947</v>
+        <f>EQ94*(1+$AF$37)</f>
+        <v>748771.21564745321</v>
       </c>
       <c r="ES94" s="3">
-        <f t="shared" si="107"/>
-        <v>713768.39049913769</v>
+        <f>ER94*(1+$AF$37)</f>
+        <v>756258.9278039278</v>
       </c>
       <c r="ET94" s="3">
-        <f t="shared" si="107"/>
-        <v>720906.07440412906</v>
+        <f>ES94*(1+$AF$37)</f>
+        <v>763821.51708196709</v>
       </c>
       <c r="EU94" s="3">
-        <f t="shared" si="107"/>
-        <v>728115.1351481704</v>
+        <f>ET94*(1+$AF$37)</f>
+        <v>771459.73225278675</v>
       </c>
       <c r="EV94" s="3">
-        <f t="shared" si="107"/>
-        <v>735396.28649965208</v>
+        <f>EU94*(1+$AF$37)</f>
+        <v>779174.32957531465</v>
       </c>
       <c r="EW94" s="3">
-        <f t="shared" si="107"/>
-        <v>742750.2493646486</v>
+        <f>EV94*(1+$AF$37)</f>
+        <v>786966.07287106779</v>
       </c>
       <c r="EX94" s="3">
-        <f t="shared" si="107"/>
-        <v>750177.75185829506</v>
+        <f>EW94*(1+$AF$37)</f>
+        <v>794835.7335997785</v>
       </c>
       <c r="EY94" s="3">
-        <f t="shared" si="107"/>
-        <v>757679.52937687805</v>
+        <f>EX94*(1+$AF$37)</f>
+        <v>802784.09093577624</v>
       </c>
       <c r="EZ94" s="3">
-        <f t="shared" si="107"/>
-        <v>765256.32467064681</v>
+        <f>EY94*(1+$AF$37)</f>
+        <v>810811.93184513401</v>
       </c>
       <c r="FA94" s="3">
-        <f t="shared" si="107"/>
-        <v>772908.88791735331</v>
+        <f>EZ94*(1+$AF$37)</f>
+        <v>818920.05116358539</v>
       </c>
       <c r="FB94" s="3">
-        <f t="shared" si="107"/>
-        <v>780637.97679652681</v>
+        <f>FA94*(1+$AF$37)</f>
+        <v>827109.25167522125</v>
       </c>
       <c r="FC94" s="3">
-        <f t="shared" ref="FC94:FJ94" si="108">FB94*(1+$AF$88)</f>
-        <v>788444.3565644921</v>
+        <f>FB94*(1+$AF$37)</f>
+        <v>835380.34419197345</v>
       </c>
       <c r="FD94" s="3">
-        <f t="shared" si="108"/>
-        <v>796328.80013013701</v>
+        <f>FC94*(1+$AF$37)</f>
+        <v>843734.14763389318</v>
       </c>
       <c r="FE94" s="3">
-        <f t="shared" si="108"/>
-        <v>804292.08813143836</v>
+        <f>FD94*(1+$AF$37)</f>
+        <v>852171.4891102321</v>
       </c>
       <c r="FF94" s="3">
-        <f t="shared" si="108"/>
-        <v>812335.00901275279</v>
+        <f>FE94*(1+$AF$37)</f>
+        <v>860693.20400133438</v>
       </c>
       <c r="FG94" s="3">
-        <f t="shared" si="108"/>
-        <v>820458.35910288035</v>
+        <f>FF94*(1+$AF$37)</f>
+        <v>869300.13604134775</v>
       </c>
       <c r="FH94" s="3">
-        <f t="shared" si="108"/>
-        <v>828662.94269390916</v>
+        <f>FG94*(1+$AF$37)</f>
+        <v>877993.13740176125</v>
       </c>
       <c r="FI94" s="3">
-        <f t="shared" si="108"/>
-        <v>836949.57212084823</v>
+        <f>FH94*(1+$AF$37)</f>
+        <v>886773.06877577887</v>
       </c>
       <c r="FJ94" s="3">
-        <f t="shared" si="108"/>
-        <v>845319.06784205674</v>
+        <f>FI94*(1+$AF$37)</f>
+        <v>895640.79946353671</v>
       </c>
     </row>
     <row r="95" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B95" s="4">
-        <f t="shared" ref="B95:K95" si="109">B94/B34</f>
+        <f t="shared" ref="B95:K95" si="98">B94/B34</f>
         <v>0</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>1.5606489547038327</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0.56962614843981541</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0.67058286757157526</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0.93597377148025329</v>
       </c>
       <c r="J95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0.54872611464968157</v>
       </c>
       <c r="K95" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="98"/>
         <v>0.18800539083557952</v>
       </c>
       <c r="O95" s="4">
-        <f t="shared" ref="O95:AC95" si="110">O94/O34</f>
+        <f t="shared" ref="O95:AC95" si="99">O94/O34</f>
         <v>0.65768524188609923</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>1.3266563944530045</v>
       </c>
       <c r="Q95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>1.5415860735009672</v>
       </c>
       <c r="R95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.63753141580564088</v>
       </c>
       <c r="S95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.90178493433887541</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>1.0638456380838859</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>1.0468186149688345</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.94524777116214598</v>
       </c>
       <c r="W95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.93943899966204802</v>
       </c>
       <c r="X95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.71157188230358959</v>
       </c>
       <c r="Y95" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="99"/>
         <v>0.50018767089371763</v>
       </c>
       <c r="Z95" s="4">
-        <f t="shared" si="110"/>
-        <v>0.54730897078355734</v>
+        <f t="shared" si="99"/>
+        <v>0.46296114854032383</v>
       </c>
       <c r="AA95" s="4">
-        <f t="shared" si="110"/>
-        <v>0.59673841086155732</v>
+        <f t="shared" si="99"/>
+        <v>0.43486051027078998</v>
       </c>
       <c r="AB95" s="4">
-        <f t="shared" si="110"/>
-        <v>0.6408531638344479</v>
+        <f t="shared" si="99"/>
+        <v>0.40724699332823405</v>
       </c>
       <c r="AC95" s="4">
-        <f t="shared" si="110"/>
-        <v>0.6803517693009602</v>
+        <f t="shared" si="99"/>
+        <v>0.38000293009058095</v>
       </c>
     </row>
     <row r="100" spans="22:25" x14ac:dyDescent="0.2">
